--- a/ohm.computsdoras/Reparación de computadoras 5meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 5meses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\ohm.computsdoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095A63B-09A0-4629-8F2A-6B663CF5879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971D1EE-3987-4CB3-BE0D-EA0E16230439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
@@ -619,6 +619,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,27 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,8 +1003,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1018,21 +1018,21 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:9" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:9" s="3" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1047,16 +1047,16 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1064,23 +1064,23 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="26"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -1088,34 +1088,34 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="26"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="27"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -1123,32 +1123,32 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="26"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -1156,21 +1156,21 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="27"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="25">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1184,8 +1184,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="26"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1197,8 +1197,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="26"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1210,8 +1210,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1223,10 +1223,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B18" s="26">
+      <c r="B18" s="33">
         <v>4</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1238,8 +1238,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="26"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1251,8 +1251,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="27"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="12" t="s">
         <v>34</v>
       </c>
@@ -1264,10 +1264,10 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B21" s="25">
+      <c r="B21" s="32">
         <v>5</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1281,8 +1281,8 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B22" s="26"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
@@ -1294,63 +1294,55 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B23" s="26"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B24" s="26"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="26"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="27"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="39"/>
+      <c r="F26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F23:F24"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C13"/>
@@ -1361,6 +1353,14 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ohm.computsdoras/Reparación de computadoras 5meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 5meses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971D1EE-3987-4CB3-BE0D-EA0E16230439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC86D8-9462-4591-896C-3A04C90DACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>MES</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Internet y busqueda</t>
   </si>
   <si>
-    <t>Reparacion de software y hardware con algún problema externo al proceso de mantenimiento preventivo.</t>
-  </si>
-  <si>
     <t>Aplicaciones y uso de la web para el uso comun y actualizacion de todo tipo de aplicación y ordenador.</t>
   </si>
   <si>
@@ -241,6 +238,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kali Linux</t>
+  </si>
+  <si>
+    <t>USB de Emergencia</t>
+  </si>
+  <si>
+    <t>Clonacion de HDD</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1009,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="63" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1043,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -1180,7 +1186,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
@@ -1193,7 +1199,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
@@ -1206,10 +1212,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="34"/>
       <c r="C17" s="39"/>
       <c r="D17" s="1" t="s">
@@ -1219,10 +1225,10 @@
         <v>37</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B18" s="33">
         <v>4</v>
       </c>
@@ -1234,10 +1240,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B19" s="33"/>
       <c r="C19" s="39"/>
       <c r="D19" s="1" t="s">
@@ -1247,10 +1253,10 @@
         <v>41</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="34"/>
       <c r="C20" s="39"/>
       <c r="D20" s="12" t="s">
@@ -1260,10 +1266,10 @@
         <v>42</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="32">
         <v>5</v>
       </c>
@@ -1274,70 +1280,79 @@
         <v>45</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B22" s="33"/>
       <c r="C22" s="39"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B23" s="33"/>
       <c r="C23" s="39"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B24" s="33"/>
       <c r="C24" s="39"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B25" s="33"/>
       <c r="C25" s="39"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="34"/>
       <c r="C26" s="44"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="26"/>
     </row>

--- a/ohm.computsdoras/Reparación de computadoras 5meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 5meses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC86D8-9462-4591-896C-3A04C90DACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D40B3A-2382-4A28-9FB0-27A7A4A4B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>MES</t>
   </si>
@@ -247,13 +247,34 @@
   </si>
   <si>
     <t>Clonacion de HDD</t>
+  </si>
+  <si>
+    <t>Utilizar virtual box</t>
+  </si>
+  <si>
+    <t>Particionar Discos Duros</t>
+  </si>
+  <si>
+    <t>Instalación y actualización de Drivers o Controladores</t>
+  </si>
+  <si>
+    <t>Como ingresar al BIOS, modificar valores y eliminar contraseña.</t>
+  </si>
+  <si>
+    <t>Como ver los Dirvers del computador</t>
+  </si>
+  <si>
+    <t>Instalación de Drivers con Software</t>
+  </si>
+  <si>
+    <t>Historia de las computadoras.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +319,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Var(--font-stack-text)"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -565,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -625,6 +662,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,45 +722,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5C5E3-FA7E-40AA-AD66-D8A07F225F1A}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="63" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="3.23046875" customWidth="1"/>
     <col min="2" max="3" width="17.23046875" customWidth="1"/>
@@ -1022,23 +1066,23 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1"/>
+    <row r="2" spans="2:9" ht="26.6" thickBot="1">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:9" s="3" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:9" s="3" customFormat="1" ht="16.3" thickBot="1">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1052,131 +1096,134 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+    <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="33"/>
-      <c r="C5" s="39"/>
+      <c r="G4" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="33"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="33"/>
-      <c r="C7" s="39"/>
+    <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="26"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="34"/>
-      <c r="C8" s="39"/>
+    <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="32">
+      <c r="E8" s="41"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="25">
         <v>2</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="40" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="33"/>
-      <c r="C10" s="39"/>
+    <row r="10" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
-      <c r="C11" s="39"/>
+    <row r="11" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="33"/>
-      <c r="C12" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="40" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="34"/>
-      <c r="C13" s="40"/>
+    <row r="13" spans="2:9" ht="23.05" customHeight="1" thickBot="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="32">
+    <row r="14" spans="2:9" ht="20.149999999999999" customHeight="1" thickTop="1">
+      <c r="B14" s="25">
         <v>3</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1189,9 +1236,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="33"/>
-      <c r="C15" s="39"/>
+    <row r="15" spans="2:9" ht="29.15">
+      <c r="B15" s="26"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1202,9 +1249,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="33"/>
-      <c r="C16" s="39"/>
+    <row r="16" spans="2:9" ht="29.15">
+      <c r="B16" s="26"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1215,9 +1262,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="34"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="2:8" ht="29.6" thickBot="1">
+      <c r="B17" s="27"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1228,11 +1275,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B18" s="33">
+    <row r="18" spans="2:8" ht="29.15">
+      <c r="B18" s="26">
         <v>4</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1243,9 +1290,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="33"/>
-      <c r="C19" s="39"/>
+    <row r="19" spans="2:8" ht="29.15">
+      <c r="B19" s="26"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1256,9 +1303,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="34"/>
-      <c r="C20" s="39"/>
+    <row r="20" spans="2:8" ht="29.6" thickBot="1">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="12" t="s">
         <v>34</v>
       </c>
@@ -1269,11 +1316,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="32">
+    <row r="21" spans="2:8">
+      <c r="B21" s="25">
         <v>5</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1289,9 +1336,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B22" s="33"/>
-      <c r="C22" s="39"/>
+    <row r="22" spans="2:8" ht="29.15">
+      <c r="B22" s="26"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
@@ -1305,59 +1352,87 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B23" s="33"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="2:8" ht="29.15">
+      <c r="B23" s="26"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B24" s="33"/>
-      <c r="C24" s="39"/>
+    <row r="24" spans="2:8" ht="29.15">
+      <c r="B24" s="26"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="33"/>
-      <c r="C25" s="39"/>
+      <c r="F24" s="44"/>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="29.15">
+      <c r="B25" s="26"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="34"/>
-      <c r="C26" s="44"/>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="34.75" thickBot="1">
+      <c r="B26" s="27"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="34.299999999999997">
+      <c r="G27" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C13"/>
@@ -1368,14 +1443,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
